--- a/src/main/resources/git.xlsx
+++ b/src/main/resources/git.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Study\DemoS\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vhm\DemoS\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4007335-8C80-45EF-9BAE-2706A666F9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C28212-8386-4E1B-B327-D3C4DDFDC974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Error" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Commands</t>
   </si>
@@ -686,6 +687,60 @@
   </si>
   <si>
     <t>to compare two commits</t>
+  </si>
+  <si>
+    <t>IAC Failure</t>
+  </si>
+  <si>
+    <t>module.eks_worker.aws_eks_node_group.eks-preferred-az-node-group: Still modifying... [id=oregon-prod2-eks-cluster:oregon-prod2-eks-cluster-preferred-az-ng, 26m20s elapsed]
+Error: waiting for EKS Node Group (oregon-prod2-eks-cluster:oregon-prod2-eks-cluster-preferred-az-ng) version update (6652ce4d-2add-36f5-9523-28329b533ad3): unexpected state 'Failed', wanted target 'Successful'. last error: 1 error occurred:
+	* ip-10-103-29-242.us-west-2.compute.internal: PodEvictionFailure: Reached max retries while trying to evict pods from nodes in node group oregon-prod2-eks-cluster-preferred-az-ng
+  with module.eks_worker.aws_eks_node_group.eks-preferred-az-node-group,
+  on modules/eks_worker/main.tf line 67, in resource "aws_eks_node_group" "eks-preferred-az-node-group"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDB issue fix pod count in config pode distrbution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recover local stash drop </t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/65182172/visual-studio-undo-drop-stash</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the GIT console window: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git fsck --no-reflog | awk '/dangling commit/ {print $3}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>gitk --all $( git fsck --no-reflog | awk '/dangling commit/ {print $3}' )</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1250,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1578,6 +1633,17 @@
         <v>91</v>
       </c>
     </row>
+    <row r="38" spans="1:3" ht="72">
+      <c r="A38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1588,7 +1654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FCEF3B-C04A-4E29-802C-B479335A4956}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1654,4 +1720,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1186E4-DD8E-460B-B0CC-3BE66BC05144}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="73.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="172.8">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{a59b6cd5-d141-4a33-8bf1-0ca04484304f}" enabled="1" method="Standard" siteId="{38ae3bcd-9579-4fd4-adda-b42e1495d55a}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>